--- a/SolutionTester.xlsx
+++ b/SolutionTester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\up201\Desktop\FEUP\4Ano\2Semestre\SADE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco\Desktop\FEUP\4º Ano\SADE\SADE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019FDD1C-0B87-4707-85CE-D4BACC5FB715}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41BB25F-B0E6-4FC2-ADF6-8439735E8B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3585" yWindow="1305" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -713,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F76" si="0">IFERROR(FIND("C",A3),0)</f>
+        <f t="shared" ref="F3:F55" si="0">IFERROR(FIND("C",A3),0)</f>
         <v>1</v>
       </c>
       <c r="G3">
@@ -824,7 +824,7 @@
         <v>24.647506750000002</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E78" si="1">IFERROR(FIND("W",A4),0)</f>
+        <f t="shared" ref="E4:E55" si="1">IFERROR(FIND("W",A4),0)</f>
         <v>0</v>
       </c>
       <c r="F4">
@@ -838,9 +838,9 @@
       <c r="J4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="2" t="e">
         <f>SUM(G:G)</f>
-        <v>1976.9377019333613</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -874,19 +874,19 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A6,Locations!A:A,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A6,Locations!A:A,0))</f>
-        <v>74.393210600000003</v>
+        <v>77.776312700000005</v>
       </c>
       <c r="D6">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A6,Locations!A:A,0))</f>
-        <v>29.533835419999999</v>
+        <v>15.404496050000001</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
@@ -898,24 +898,24 @@
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>6.2889686702038414</v>
+        <v>8.8621250382719499</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B7">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A7,Locations!A:A,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A7,Locations!A:A,0))</f>
-        <v>15.527511580000001</v>
+        <v>82.525953380000004</v>
       </c>
       <c r="D7">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A7,Locations!A:A,0))</f>
-        <v>54.457409069999997</v>
+        <v>22.86137489</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
@@ -927,12 +927,12 @@
       </c>
       <c r="G7">
         <f>IF(AND(E6=1,E7=1),0,SQRT((C6-C7)*(C6-C7)+(D6-D7)*(D6-D7)))</f>
-        <v>63.924604375781655</v>
+        <v>8.8410479369558104</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A8,Locations!A:A,0))</f>
@@ -940,11 +940,11 @@
       </c>
       <c r="C8">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A8,Locations!A:A,0))</f>
-        <v>0</v>
+        <v>80.279649809999995</v>
       </c>
       <c r="D8">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A8,Locations!A:A,0))</f>
-        <v>76.589959059999998</v>
+        <v>39.519746009999999</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8" si="3">IFERROR(FIND("W",A8),0)</f>
@@ -956,53 +956,53 @@
       </c>
       <c r="G8">
         <f>IF(AND(E7=1,E8=1),0,SQRT((C7-C8)*(C7-C8)+(D7-D8)*(D7-D8)))</f>
-        <v>27.036149595067769</v>
+        <v>16.809140611591207</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A9,Locations!A:A,0))</f>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A9,Locations!A:A,0))</f>
-        <v>65.479073560000003</v>
+        <v>75.526830829999994</v>
       </c>
       <c r="D9">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A9,Locations!A:A,0))</f>
-        <v>35.994050289999997</v>
+        <v>42.529610050000002</v>
       </c>
       <c r="E9">
         <f t="shared" ref="E9" si="5">IFERROR(FIND("W",A9),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f t="shared" ref="F9" si="6">IFERROR(FIND("C",A9),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f>IF(AND(E8=1,E9=1),0,SQRT((C8-C9)*(C8-C9)+(D8-D9)*(D8-D9)))</f>
-        <v>77.042435599726815</v>
+        <v>5.6257061597574918</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A10,Locations!A:A,0))</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A10,Locations!A:A,0))</f>
-        <v>42.832906020000003</v>
+        <v>65.479073560000003</v>
       </c>
       <c r="D10">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A10,Locations!A:A,0))</f>
-        <v>20.116214809999999</v>
+        <v>35.994050289999997</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
@@ -1014,53 +1014,53 @@
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11.986282473451432</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A11,Locations!A:A,0))</f>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A11,Locations!A:A,0))</f>
-        <v>47.847407400000002</v>
+        <v>42.832906020000003</v>
       </c>
       <c r="D11">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A11,Locations!A:A,0))</f>
-        <v>21.47823807</v>
+        <v>20.116214809999999</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>5.1961843164771322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A12,Locations!A:A,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A12,Locations!A:A,0))</f>
-        <v>51.866006149999997</v>
+        <v>47.847407400000002</v>
       </c>
       <c r="D12">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A12,Locations!A:A,0))</f>
-        <v>20.168988729999999</v>
+        <v>21.47823807</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
@@ -1072,12 +1072,12 @@
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>4.2264961549482045</v>
+        <v>5.1961843164771322</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A13,Locations!A:A,0))</f>
@@ -1085,11 +1085,11 @@
       </c>
       <c r="C13">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A13,Locations!A:A,0))</f>
-        <v>50.081385220000001</v>
+        <v>51.866006149999997</v>
       </c>
       <c r="D13">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A13,Locations!A:A,0))</f>
-        <v>9.7234469010000009</v>
+        <v>20.168988729999999</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
@@ -1101,24 +1101,24 @@
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>10.596896525171069</v>
+        <v>4.2264961549482045</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A14,Locations!A:A,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A14,Locations!A:A,0))</f>
-        <v>49.782066149999999</v>
+        <v>55.011979820000001</v>
       </c>
       <c r="D14">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A14,Locations!A:A,0))</f>
-        <v>6.4622317569999996</v>
+        <v>17.208276600000001</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
@@ -1130,24 +1130,24 @@
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>3.2749223076464906</v>
+        <v>4.3200655838843938</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A15,Locations!A:A,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A15,Locations!A:A,0))</f>
-        <v>39.14498373</v>
+        <v>58.121815050000002</v>
       </c>
       <c r="D15">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A15,Locations!A:A,0))</f>
-        <v>0.79594403199999997</v>
+        <v>13.838399559999999</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
@@ -1159,70 +1159,70 @@
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>12.052150803585173</v>
+        <v>4.5855366558853659</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="B16">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A16,Locations!A:A,0))</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A16,Locations!A:A,0))</f>
-        <v>42.832906020000003</v>
+        <v>59.154387810000003</v>
       </c>
       <c r="D16">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A16,Locations!A:A,0))</f>
-        <v>20.116214809999999</v>
+        <v>11.04931584</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>19.669103531994526</v>
+        <v>2.9740871711943906</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B17">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A17,Locations!A:A,0))</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A17,Locations!A:A,0))</f>
-        <v>73.704749860000007</v>
+        <v>49.782066149999999</v>
       </c>
       <c r="D17">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A17,Locations!A:A,0))</f>
-        <v>94.697188249999996</v>
+        <v>6.4622317569999996</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10.434642000711726</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="B18">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A18,Locations!A:A,0))</f>
@@ -1230,11 +1230,11 @@
       </c>
       <c r="C18">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A18,Locations!A:A,0))</f>
-        <v>78.062220420000003</v>
+        <v>39.14498373</v>
       </c>
       <c r="D18">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A18,Locations!A:A,0))</f>
-        <v>89.077438439999995</v>
+        <v>0.79594403199999997</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
@@ -1246,82 +1246,82 @@
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>7.1111980431050954</v>
+        <v>12.052150803585173</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A19,Locations!A:A,0))</f>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A19,Locations!A:A,0))</f>
-        <v>79.008218110000001</v>
+        <v>42.832906020000003</v>
       </c>
       <c r="D19">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A19,Locations!A:A,0))</f>
-        <v>65.822374929999995</v>
+        <v>20.116214809999999</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>23.274296777424208</v>
+        <v>19.669103531994526</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A20,Locations!A:A,0))</f>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A20,Locations!A:A,0))</f>
-        <v>89.522648889999999</v>
+        <v>73.704749860000007</v>
       </c>
       <c r="D20">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A20,Locations!A:A,0))</f>
-        <v>55.758484789999997</v>
+        <v>94.697188249999996</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>14.554557340482758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A21,Locations!A:A,0))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A21,Locations!A:A,0))</f>
-        <v>65.653493490000002</v>
+        <v>78.062220420000003</v>
       </c>
       <c r="D21">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A21,Locations!A:A,0))</f>
-        <v>11.38231736</v>
+        <v>89.077438439999995</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
@@ -1333,53 +1333,53 @@
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>50.388300380988653</v>
+        <v>7.1111980431050954</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A22,Locations!A:A,0))</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A22,Locations!A:A,0))</f>
-        <v>37.481699480000003</v>
+        <v>73.704749860000007</v>
       </c>
       <c r="D22">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A22,Locations!A:A,0))</f>
-        <v>19.234510499999999</v>
+        <v>94.697188249999996</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>29.245630696733741</v>
+        <v>7.1111980431050954</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A23,Locations!A:A,0))</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A23,Locations!A:A,0))</f>
-        <v>73.704749860000007</v>
+        <v>88.4789277</v>
       </c>
       <c r="D23">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A23,Locations!A:A,0))</f>
-        <v>94.697188249999996</v>
+        <v>82.468778400000005</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
@@ -1391,53 +1391,53 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>83.706183236558843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="B24">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A24,Locations!A:A,0))</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A24,Locations!A:A,0))</f>
-        <v>88.4789277</v>
+        <v>87.713852700000004</v>
       </c>
       <c r="D24">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A24,Locations!A:A,0))</f>
-        <v>82.468778400000005</v>
+        <v>78.251412020000004</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.2862009914117785</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B25">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A25,Locations!A:A,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A25,Locations!A:A,0))</f>
-        <v>87.713852700000004</v>
+        <v>80.403756000000001</v>
       </c>
       <c r="D25">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A25,Locations!A:A,0))</f>
-        <v>78.251412020000004</v>
+        <v>62.445643080000004</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
@@ -1449,24 +1449,24 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>4.2862009914117785</v>
+        <v>17.414357454354143</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A26,Locations!A:A,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A26,Locations!A:A,0))</f>
-        <v>84.966201819999995</v>
+        <v>79.008218110000001</v>
       </c>
       <c r="D26">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A26,Locations!A:A,0))</f>
-        <v>74.177936639999999</v>
+        <v>65.822374929999995</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>4.913531014436666</v>
+        <v>3.6537438319113202</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A27,Locations!A:A,0))</f>
@@ -1491,11 +1491,11 @@
       </c>
       <c r="C27">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A27,Locations!A:A,0))</f>
-        <v>75.526830829999994</v>
+        <v>84.966201819999995</v>
       </c>
       <c r="D27">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A27,Locations!A:A,0))</f>
-        <v>42.529610050000002</v>
+        <v>74.177936639999999</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
@@ -1507,82 +1507,82 @@
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>33.026024596280955</v>
+        <v>10.262211329837418</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B28">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A28,Locations!A:A,0))</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A28,Locations!A:A,0))</f>
-        <v>80.279649809999995</v>
+        <v>88.4789277</v>
       </c>
       <c r="D28">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A28,Locations!A:A,0))</f>
-        <v>39.519746009999999</v>
+        <v>82.468778400000005</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>5.6257061597574918</v>
+        <v>9.0042934313238483</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="B29">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A29,Locations!A:A,0))</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A29,Locations!A:A,0))</f>
-        <v>34.80062968</v>
+        <v>52.826955890000001</v>
       </c>
       <c r="D29">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A29,Locations!A:A,0))</f>
-        <v>97.085704250000006</v>
+        <v>69.682541950000001</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>73.363347933926576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B30">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A30,Locations!A:A,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A30,Locations!A:A,0))</f>
-        <v>10.8962272</v>
+        <v>52.248902399999999</v>
       </c>
       <c r="D30">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A30,Locations!A:A,0))</f>
-        <v>95.64954075</v>
+        <v>77.120790499999998</v>
       </c>
       <c r="E30">
         <f t="shared" ref="E30:E31" si="7">IFERROR(FIND("W",A30),0)</f>
@@ -1594,82 +1594,82 @@
       </c>
       <c r="G30">
         <f t="shared" ref="G30:G31" si="9">IF(AND(E29=1,E30=1),0,SQRT((C29-C30)*(C29-C30)+(D29-D30)*(D29-D30)))</f>
-        <v>23.947505580426586</v>
+        <v>7.4606760637946374</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="B31">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A31,Locations!A:A,0))</f>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A31,Locations!A:A,0))</f>
-        <v>88.4789277</v>
+        <v>54.045491730000002</v>
       </c>
       <c r="D31">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A31,Locations!A:A,0))</f>
-        <v>82.468778400000005</v>
+        <v>79.947709970000005</v>
       </c>
       <c r="E31">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <f t="shared" si="9"/>
-        <v>78.694395689908418</v>
+        <v>3.3495084580479837</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B32">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A32,Locations!A:A,0))</f>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A32,Locations!A:A,0))</f>
-        <v>52.826955890000001</v>
+        <v>53.131860359999997</v>
       </c>
       <c r="D32">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A32,Locations!A:A,0))</f>
-        <v>69.682541950000001</v>
+        <v>81.724463319999998</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.9978925764375528</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B33">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A33,Locations!A:A,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A33,Locations!A:A,0))</f>
-        <v>52.248902399999999</v>
+        <v>57.533646040000001</v>
       </c>
       <c r="D33">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A33,Locations!A:A,0))</f>
-        <v>77.120790499999998</v>
+        <v>83.334309919999995</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
@@ -1681,24 +1681,24 @@
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
-        <v>7.4606760637946374</v>
+        <v>4.6869311119521102</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A34,Locations!A:A,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A34,Locations!A:A,0))</f>
-        <v>54.045491730000002</v>
+        <v>61.556527340000002</v>
       </c>
       <c r="D34">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A34,Locations!A:A,0))</f>
-        <v>79.947709970000005</v>
+        <v>81.352181659999999</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
@@ -1710,82 +1710,82 @@
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
-        <v>3.3495084580479837</v>
+        <v>4.4846857630139834</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A35,Locations!A:A,0))</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A35,Locations!A:A,0))</f>
-        <v>53.131860359999997</v>
+        <v>52.826955890000001</v>
       </c>
       <c r="D35">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A35,Locations!A:A,0))</f>
-        <v>81.724463319999998</v>
+        <v>69.682541950000001</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
-        <v>1.9978925764375528</v>
+        <v>14.573465911095548</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="B36">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A36,Locations!A:A,0))</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A36,Locations!A:A,0))</f>
-        <v>33.232034110000001</v>
+        <v>28.62226716</v>
       </c>
       <c r="D36">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A36,Locations!A:A,0))</f>
-        <v>71.876946040000007</v>
+        <v>20.424974330000001</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <f t="shared" si="2"/>
-        <v>22.203078195603585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B37">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A37,Locations!A:A,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A37,Locations!A:A,0))</f>
-        <v>27.157816789999998</v>
+        <v>24.026624380000001</v>
       </c>
       <c r="D37">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A37,Locations!A:A,0))</f>
-        <v>75.484307479999998</v>
+        <v>8.6311217280000001</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
@@ -1797,82 +1797,82 @@
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
-        <v>7.064642426152</v>
+        <v>12.657602133068819</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B38">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A38,Locations!A:A,0))</f>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C38">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A38,Locations!A:A,0))</f>
-        <v>52.826955890000001</v>
+        <v>14.954786240000001</v>
       </c>
       <c r="D38">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A38,Locations!A:A,0))</f>
-        <v>69.682541950000001</v>
+        <v>11.744081339999999</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <f t="shared" si="2"/>
-        <v>26.316633245919679</v>
+        <v>9.59107735263885</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="B39">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A39,Locations!A:A,0))</f>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A39,Locations!A:A,0))</f>
-        <v>28.62226716</v>
+        <v>8.1405563070000007</v>
       </c>
       <c r="D39">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A39,Locations!A:A,0))</f>
-        <v>20.424974330000001</v>
+        <v>9.6321880039999996</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.1339906814092764</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A40,Locations!A:A,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A40,Locations!A:A,0))</f>
-        <v>25.68187601</v>
+        <v>4.5588906360000001</v>
       </c>
       <c r="D40">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A40,Locations!A:A,0))</f>
-        <v>13.427670859999999</v>
+        <v>8.0746192089999997</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
@@ -1884,12 +1884,12 @@
       </c>
       <c r="G40">
         <f t="shared" si="2"/>
-        <v>7.5900036868418184</v>
+        <v>3.9056816984974128</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="B41">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A41,Locations!A:A,0))</f>
@@ -1897,11 +1897,11 @@
       </c>
       <c r="C41">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A41,Locations!A:A,0))</f>
-        <v>24.026624380000001</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A41,Locations!A:A,0))</f>
-        <v>8.6311217280000001</v>
+        <v>7.0138394079999999</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
@@ -1913,82 +1913,82 @@
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
-        <v>5.074124706223488</v>
+        <v>4.6806770468830772</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B42">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A42,Locations!A:A,0))</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C42">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A42,Locations!A:A,0))</f>
-        <v>14.954786240000001</v>
+        <v>28.62226716</v>
       </c>
       <c r="D42">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A42,Locations!A:A,0))</f>
-        <v>11.744081339999999</v>
+        <v>20.424974330000001</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <f t="shared" si="2"/>
-        <v>9.59107735263885</v>
+        <v>31.608427946902111</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B43">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A43,Locations!A:A,0))</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C43">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A43,Locations!A:A,0))</f>
-        <v>16.72936035</v>
+        <v>1.88473515</v>
       </c>
       <c r="D43">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A43,Locations!A:A,0))</f>
-        <v>0</v>
+        <v>37.681748319999997</v>
       </c>
       <c r="E43">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <f t="shared" si="2"/>
-        <v>11.877397012494718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B44">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A44,Locations!A:A,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C44">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A44,Locations!A:A,0))</f>
-        <v>39.314119339999998</v>
+        <v>4.1856350339999997</v>
       </c>
       <c r="D44">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A44,Locations!A:A,0))</f>
-        <v>0</v>
+        <v>51.712579789999999</v>
       </c>
       <c r="E44">
         <f t="shared" si="1"/>
@@ -2000,82 +2000,82 @@
       </c>
       <c r="G44">
         <f t="shared" si="2"/>
-        <v>22.584758989999997</v>
+        <v>14.218240820007713</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B45">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A45,Locations!A:A,0))</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A45,Locations!A:A,0))</f>
-        <v>28.62226716</v>
+        <v>15.527511580000001</v>
       </c>
       <c r="D45">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A45,Locations!A:A,0))</f>
-        <v>20.424974330000001</v>
+        <v>54.457409069999997</v>
       </c>
       <c r="E45">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <f t="shared" si="2"/>
-        <v>23.05418138690094</v>
+        <v>11.669286668903554</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B46">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A46,Locations!A:A,0))</f>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A46,Locations!A:A,0))</f>
-        <v>1.88473515</v>
+        <v>21.437070049999999</v>
       </c>
       <c r="D46">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A46,Locations!A:A,0))</f>
-        <v>37.681748319999997</v>
+        <v>48.737882200000001</v>
       </c>
       <c r="E46">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.224102925365214</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B47">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A47,Locations!A:A,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A47,Locations!A:A,0))</f>
-        <v>1.5812249460000001</v>
+        <v>30.6559828</v>
       </c>
       <c r="D47">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A47,Locations!A:A,0))</f>
-        <v>29.495101890000001</v>
+        <v>45.549822679999998</v>
       </c>
       <c r="E47">
         <f t="shared" si="1"/>
@@ -2087,24 +2087,24 @@
       </c>
       <c r="G47">
         <f t="shared" si="2"/>
-        <v>8.1922706384593891</v>
+        <v>9.7545925489061425</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B48">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A48,Locations!A:A,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A48,Locations!A:A,0))</f>
-        <v>15.45336629</v>
+        <v>22.711388150000001</v>
       </c>
       <c r="D48">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A48,Locations!A:A,0))</f>
-        <v>19.954045650000001</v>
+        <v>35.619728139999999</v>
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
@@ -2116,82 +2116,82 @@
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
-        <v>16.836509722705507</v>
+        <v>12.717050040247008</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B49">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A49,Locations!A:A,0))</f>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C49">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A49,Locations!A:A,0))</f>
-        <v>20.335854829999999</v>
+        <v>1.88473515</v>
       </c>
       <c r="D49">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A49,Locations!A:A,0))</f>
-        <v>17.72262855</v>
+        <v>37.681748319999997</v>
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <f t="shared" si="2"/>
-        <v>5.3682321687315033</v>
+        <v>20.928483041184236</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="B50">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A50,Locations!A:A,0))</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C50">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A50,Locations!A:A,0))</f>
-        <v>34.415598559999999</v>
+        <v>30.620604530000001</v>
       </c>
       <c r="D50">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A50,Locations!A:A,0))</f>
-        <v>9.4117582130000006</v>
+        <v>55.927315299999997</v>
       </c>
       <c r="E50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
-        <v>16.349610064490861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B51">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A51,Locations!A:A,0))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A51,Locations!A:A,0))</f>
-        <v>41.080648109999998</v>
+        <v>29.49025743</v>
       </c>
       <c r="D51">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A51,Locations!A:A,0))</f>
-        <v>14.586683000000001</v>
+        <v>53.44498419</v>
       </c>
       <c r="E51">
         <f t="shared" si="1"/>
@@ -2203,70 +2203,70 @@
       </c>
       <c r="G51">
         <f t="shared" si="2"/>
-        <v>8.4381711321270423</v>
+        <v>2.7275726032779093</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B52">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A52,Locations!A:A,0))</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A52,Locations!A:A,0))</f>
-        <v>1.88473515</v>
+        <v>29.95549888</v>
       </c>
       <c r="D52">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A52,Locations!A:A,0))</f>
-        <v>37.681748319999997</v>
+        <v>51.781180300000003</v>
       </c>
       <c r="E52">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
-        <v>45.493973610830729</v>
+        <v>1.727626403820347</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="B53">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A53,Locations!A:A,0))</f>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A53,Locations!A:A,0))</f>
-        <v>30.620604530000001</v>
+        <v>35.804177780000003</v>
       </c>
       <c r="D53">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A53,Locations!A:A,0))</f>
-        <v>55.927315299999997</v>
+        <v>50.464723550000002</v>
       </c>
       <c r="E53">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IFERROR(FIND("C",A53),0)</f>
+        <v>1</v>
       </c>
       <c r="G53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.995006526262153</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B54">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A54,Locations!A:A,0))</f>
@@ -2274,11 +2274,11 @@
       </c>
       <c r="C54">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A54,Locations!A:A,0))</f>
-        <v>29.49025743</v>
+        <v>35.706234199999997</v>
       </c>
       <c r="D54">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A54,Locations!A:A,0))</f>
-        <v>53.44498419</v>
+        <v>57.397186990000002</v>
       </c>
       <c r="E54">
         <f t="shared" si="1"/>
@@ -2290,24 +2290,24 @@
       </c>
       <c r="G54">
         <f t="shared" si="2"/>
-        <v>2.7275726032779093</v>
+        <v>6.9331552911931693</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A55,Locations!A:A,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C55">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A55,Locations!A:A,0))</f>
-        <v>29.95549888</v>
+        <v>37.094032439999999</v>
       </c>
       <c r="D55">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A55,Locations!A:A,0))</f>
-        <v>51.781180300000003</v>
+        <v>63.757896160000001</v>
       </c>
       <c r="E55">
         <f t="shared" si="1"/>
@@ -2319,123 +2319,123 @@
       </c>
       <c r="G55">
         <f t="shared" si="2"/>
-        <v>1.727626403820347</v>
+        <v>6.5103460046505353</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A56,Locations!A:A,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A56,Locations!A:A,0))</f>
-        <v>35.804177780000003</v>
+        <v>33.232034110000001</v>
       </c>
       <c r="D56">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A56,Locations!A:A,0))</f>
-        <v>50.464723550000002</v>
+        <v>71.876946040000007</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
+        <f>IFERROR(FIND("W",A56),0)</f>
         <v>0</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
+        <f>IFERROR(FIND("C",A56),0)</f>
         <v>1</v>
       </c>
       <c r="G56">
         <f t="shared" si="2"/>
-        <v>5.995006526262153</v>
+        <v>8.9907731622397691</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="B57">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A57,Locations!A:A,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A57,Locations!A:A,0))</f>
-        <v>35.706234199999997</v>
+        <v>27.157816789999998</v>
       </c>
       <c r="D57">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A57,Locations!A:A,0))</f>
-        <v>57.397186990000002</v>
+        <v>75.484307479999998</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
+        <f>IFERROR(FIND("W",A57),0)</f>
         <v>0</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
+        <f>IFERROR(FIND("C",A57),0)</f>
         <v>1</v>
       </c>
       <c r="G57">
         <f t="shared" si="2"/>
-        <v>6.9331552911931693</v>
+        <v>7.064642426152</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B58">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A58,Locations!A:A,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A58,Locations!A:A,0))</f>
-        <v>30.6559828</v>
+        <v>16.76881556</v>
       </c>
       <c r="D58">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A58,Locations!A:A,0))</f>
-        <v>45.549822679999998</v>
+        <v>76.357402059999998</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
+        <f>IFERROR(FIND("W",A58),0)</f>
         <v>0</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
+        <f>IFERROR(FIND("C",A58),0)</f>
         <v>1</v>
       </c>
       <c r="G58">
         <f t="shared" si="2"/>
-        <v>12.878861762479781</v>
+        <v>10.425624235630538</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="B59">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A59,Locations!A:A,0))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A59,Locations!A:A,0))</f>
-        <v>0</v>
+        <v>10.8962272</v>
       </c>
       <c r="D59">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A59,Locations!A:A,0))</f>
-        <v>66.803999189999999</v>
+        <v>95.64954075</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
+        <f>IFERROR(FIND("W",A59),0)</f>
         <v>0</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
+        <f>IFERROR(FIND("C",A59),0)</f>
         <v>1</v>
       </c>
       <c r="G59">
         <f t="shared" si="2"/>
-        <v>37.303207644278146</v>
+        <v>20.166157523936047</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2455,16 +2455,16 @@
         <v>55.927315299999997</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
+        <f>IFERROR(FIND("W",A60),0)</f>
         <v>1</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
+        <f>IFERROR(FIND("C",A60),0)</f>
         <v>0</v>
       </c>
       <c r="G60">
         <f t="shared" si="2"/>
-        <v>32.494979215651796</v>
+        <v>44.349816862720481</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2484,11 +2484,11 @@
         <v>60.594605029999997</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
+        <f>IFERROR(FIND("W",A61),0)</f>
         <v>1</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
+        <f>IFERROR(FIND("C",A61),0)</f>
         <v>0</v>
       </c>
       <c r="G61">
@@ -2513,11 +2513,11 @@
         <v>55.807370159999998</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
+        <f>IFERROR(FIND("W",A62),0)</f>
         <v>0</v>
       </c>
       <c r="F62">
-        <f t="shared" si="0"/>
+        <f>IFERROR(FIND("C",A62),0)</f>
         <v>1</v>
       </c>
       <c r="G62">
@@ -2527,65 +2527,65 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A63,Locations!A:A,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A63,Locations!A:A,0))</f>
-        <v>80.403756000000001</v>
+        <v>45.45959757</v>
       </c>
       <c r="D63">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A63,Locations!A:A,0))</f>
-        <v>62.445643080000004</v>
+        <v>46.502302350000001</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f>IFERROR(FIND("W",A63),0)</f>
         <v>0</v>
       </c>
       <c r="F63">
-        <f t="shared" si="0"/>
+        <f>IFERROR(FIND("C",A63),0)</f>
         <v>1</v>
       </c>
       <c r="G63">
         <f t="shared" si="2"/>
-        <v>14.350277672192812</v>
+        <v>24.091144721004802</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B64">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A64,Locations!A:A,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A64,Locations!A:A,0))</f>
-        <v>85.345895979999995</v>
+        <v>51.945085249999998</v>
       </c>
       <c r="D64">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A64,Locations!A:A,0))</f>
-        <v>57.582241580000002</v>
+        <v>54.734878899999998</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
+        <f>IFERROR(FIND("W",A64),0)</f>
         <v>0</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
+        <f>IFERROR(FIND("C",A64),0)</f>
         <v>1</v>
       </c>
       <c r="G64">
         <f t="shared" si="2"/>
-        <v>6.9337884112595045</v>
+        <v>10.480308540259758</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B65">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A65,Locations!A:A,0))</f>
@@ -2593,168 +2593,168 @@
       </c>
       <c r="C65">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A65,Locations!A:A,0))</f>
-        <v>37.094032439999999</v>
+        <v>52.029055110000002</v>
       </c>
       <c r="D65">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A65,Locations!A:A,0))</f>
-        <v>63.757896160000001</v>
+        <v>58.817630489999999</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f>IFERROR(FIND("W",A65),0)</f>
         <v>0</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
+        <f>IFERROR(FIND("C",A65),0)</f>
         <v>1</v>
       </c>
       <c r="G65">
         <f t="shared" si="2"/>
-        <v>48.64546273368417</v>
+        <v>4.0836150018134614</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B66">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A66,Locations!A:A,0))</f>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C66">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A66,Locations!A:A,0))</f>
-        <v>21.437070049999999</v>
+        <v>69.430623490000002</v>
       </c>
       <c r="D66">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A66,Locations!A:A,0))</f>
-        <v>48.737882200000001</v>
+        <v>60.594605029999997</v>
       </c>
       <c r="E66">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IFERROR(FIND("W",A66),0)</f>
+        <v>1</v>
       </c>
       <c r="F66">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IFERROR(FIND("C",A66),0)</f>
+        <v>0</v>
       </c>
       <c r="G66">
         <f t="shared" si="2"/>
-        <v>21.696573246493774</v>
+        <v>17.492061645204206</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="B67">
         <f>INDEX(Locations!D:D,MATCH(Sheet1!A67,Locations!A:A,0))</f>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C67">
         <f>INDEX(Locations!B:B,MATCH(Sheet1!A67,Locations!A:A,0))</f>
-        <v>4.1856350339999997</v>
+        <v>44.390136579999997</v>
       </c>
       <c r="D67">
         <f>INDEX(Locations!C:C,MATCH(Sheet1!A67,Locations!A:A,0))</f>
-        <v>51.712579789999999</v>
+        <v>36.994073229999998</v>
       </c>
       <c r="E67">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IFERROR(FIND("W",A67),0)</f>
+        <v>1</v>
       </c>
       <c r="F67">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IFERROR(FIND("C",A67),0)</f>
+        <v>0</v>
       </c>
       <c r="G67">
         <f t="shared" si="2"/>
-        <v>17.506022845387317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A68,Locations!A:A,0))</f>
-        <v>20</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A69,Locations!A:A,0))</f>
+        <v>4</v>
       </c>
       <c r="C68">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A68,Locations!A:A,0))</f>
-        <v>69.430623490000002</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A69,Locations!A:A,0))</f>
+        <v>25.68187601</v>
       </c>
       <c r="D68">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A68,Locations!A:A,0))</f>
-        <v>60.594605029999997</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A69,Locations!A:A,0))</f>
+        <v>13.427670859999999</v>
       </c>
       <c r="E68">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IFERROR(FIND("W",A69),0)</f>
+        <v>0</v>
       </c>
       <c r="F68">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IFERROR(FIND("C",A69),0)</f>
+        <v>1</v>
       </c>
       <c r="G68">
         <f t="shared" si="2"/>
-        <v>65.846783452098634</v>
+        <v>30.089438915004017</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B69">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A69,Locations!A:A,0))</f>
-        <v>17</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A70,Locations!A:A,0))</f>
+        <v>3</v>
       </c>
       <c r="C69">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A69,Locations!A:A,0))</f>
-        <v>44.390136579999997</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A70,Locations!A:A,0))</f>
+        <v>38.932425070000001</v>
       </c>
       <c r="D69">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A69,Locations!A:A,0))</f>
-        <v>36.994073229999998</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A70,Locations!A:A,0))</f>
+        <v>24.626477690000002</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IFERROR(FIND("W",A70),0)</f>
+        <v>0</v>
       </c>
       <c r="F69">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IFERROR(FIND("C",A70),0)</f>
+        <v>1</v>
       </c>
       <c r="G69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17.349072736233531</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A70,Locations!A:A,0))</f>
-        <v>3</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A71,Locations!A:A,0))</f>
+        <v>2</v>
       </c>
       <c r="C70">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A70,Locations!A:A,0))</f>
-        <v>40.930408659999998</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A71,Locations!A:A,0))</f>
+        <v>39.919773259999999</v>
       </c>
       <c r="D70">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A70,Locations!A:A,0))</f>
-        <v>35.493403620000002</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A71,Locations!A:A,0))</f>
+        <v>37.004627020000001</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
+        <f>IFERROR(FIND("W",A71),0)</f>
         <v>0</v>
       </c>
       <c r="F70">
-        <f t="shared" si="0"/>
+        <f>IFERROR(FIND("C",A71),0)</f>
         <v>1</v>
       </c>
       <c r="G70">
         <f t="shared" ref="G70:G118" si="10">IF(AND(E69=1,E70=1),0,SQRT((C69-C70)*(C69-C70)+(D69-D70)*(D69-D70)))</f>
-        <v>3.7711704494500191</v>
+        <v>12.417465010382582</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2762,28 +2762,28 @@
         <v>52</v>
       </c>
       <c r="B71">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A71,Locations!A:A,0))</f>
-        <v>2</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A72,Locations!A:A,0))</f>
+        <v>4</v>
       </c>
       <c r="C71">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A71,Locations!A:A,0))</f>
-        <v>39.919773259999999</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A72,Locations!A:A,0))</f>
+        <v>40.884089199999998</v>
       </c>
       <c r="D71">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A71,Locations!A:A,0))</f>
-        <v>37.004627020000001</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A72,Locations!A:A,0))</f>
+        <v>39.935905179999999</v>
       </c>
       <c r="E71">
-        <f t="shared" si="1"/>
+        <f>IFERROR(FIND("W",A72),0)</f>
         <v>0</v>
       </c>
       <c r="F71">
-        <f t="shared" si="0"/>
+        <f>IFERROR(FIND("C",A72),0)</f>
         <v>1</v>
       </c>
       <c r="G71">
         <f t="shared" si="10"/>
-        <v>1.8180154224980358</v>
+        <v>3.0858219137583189</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2791,1391 +2791,1391 @@
         <v>81</v>
       </c>
       <c r="B72">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A72,Locations!A:A,0))</f>
-        <v>4</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A73,Locations!A:A,0))</f>
+        <v>17</v>
       </c>
       <c r="C72">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A72,Locations!A:A,0))</f>
-        <v>40.884089199999998</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A73,Locations!A:A,0))</f>
+        <v>44.390136579999997</v>
       </c>
       <c r="D72">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A72,Locations!A:A,0))</f>
-        <v>39.935905179999999</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A73,Locations!A:A,0))</f>
+        <v>36.994073229999998</v>
       </c>
       <c r="E72">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IFERROR(FIND("W",A73),0)</f>
+        <v>1</v>
       </c>
       <c r="F72">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IFERROR(FIND("C",A73),0)</f>
+        <v>0</v>
       </c>
       <c r="G72">
         <f t="shared" si="10"/>
-        <v>3.0858219137583189</v>
+        <v>4.5767612405330542</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="B73">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A73,Locations!A:A,0))</f>
-        <v>2</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A74,Locations!A:A,0))</f>
+        <v>14</v>
       </c>
       <c r="C73">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A73,Locations!A:A,0))</f>
-        <v>45.45959757</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A74,Locations!A:A,0))</f>
+        <v>76.546860899999999</v>
       </c>
       <c r="D73">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A73,Locations!A:A,0))</f>
-        <v>46.502302350000001</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A74,Locations!A:A,0))</f>
+        <v>19.44089555</v>
       </c>
       <c r="E73">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IFERROR(FIND("W",A74),0)</f>
+        <v>1</v>
       </c>
       <c r="F73">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IFERROR(FIND("C",A74),0)</f>
+        <v>0</v>
       </c>
       <c r="G73">
         <f t="shared" si="10"/>
-        <v>8.0033023582846159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="B74">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A74,Locations!A:A,0))</f>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A75,Locations!A:A,0))</f>
         <v>3</v>
       </c>
       <c r="C74">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A74,Locations!A:A,0))</f>
-        <v>38.932425070000001</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A75,Locations!A:A,0))</f>
+        <v>80.384648810000002</v>
       </c>
       <c r="D74">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A74,Locations!A:A,0))</f>
-        <v>24.626477690000002</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A75,Locations!A:A,0))</f>
+        <v>12.45770707</v>
       </c>
       <c r="E74">
-        <f t="shared" si="1"/>
+        <f>IFERROR(FIND("W",A75),0)</f>
         <v>0</v>
       </c>
       <c r="F74">
-        <f t="shared" si="0"/>
+        <f>IFERROR(FIND("C",A75),0)</f>
         <v>1</v>
       </c>
       <c r="G74">
         <f t="shared" si="10"/>
-        <v>22.828834516895959</v>
+        <v>7.9682832146797411</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B75">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A75,Locations!A:A,0))</f>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A76,Locations!A:A,0))</f>
         <v>3</v>
       </c>
       <c r="C75">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A75,Locations!A:A,0))</f>
-        <v>33.698868419999997</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A76,Locations!A:A,0))</f>
+        <v>83.577184310000007</v>
       </c>
       <c r="D75">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A75,Locations!A:A,0))</f>
-        <v>99.557225669999994</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A76,Locations!A:A,0))</f>
+        <v>12.010237610000001</v>
       </c>
       <c r="E75">
-        <f t="shared" si="1"/>
+        <f>IFERROR(FIND("W",A76),0)</f>
         <v>0</v>
       </c>
       <c r="F75">
-        <f t="shared" si="0"/>
+        <f>IFERROR(FIND("C",A76),0)</f>
         <v>1</v>
       </c>
       <c r="G75">
         <f t="shared" si="10"/>
-        <v>75.113295148402543</v>
+        <v>3.2237418997793506</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B76">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A76,Locations!A:A,0))</f>
-        <v>17</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A77,Locations!A:A,0))</f>
+        <v>4</v>
       </c>
       <c r="C76">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A76,Locations!A:A,0))</f>
-        <v>44.390136579999997</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A77,Locations!A:A,0))</f>
+        <v>84.136991230000007</v>
       </c>
       <c r="D76">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A76,Locations!A:A,0))</f>
-        <v>36.994073229999998</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A77,Locations!A:A,0))</f>
+        <v>8.73738831</v>
       </c>
       <c r="E76">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IFERROR(FIND("W",A77),0)</f>
+        <v>0</v>
       </c>
       <c r="F76">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IFERROR(FIND("C",A77),0)</f>
+        <v>1</v>
       </c>
       <c r="G76">
         <f t="shared" si="10"/>
-        <v>63.470081598338183</v>
+        <v>3.320380449314563</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B77">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A77,Locations!A:A,0))</f>
-        <v>14</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A78,Locations!A:A,0))</f>
+        <v>4</v>
       </c>
       <c r="C77">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A77,Locations!A:A,0))</f>
-        <v>76.546860899999999</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A78,Locations!A:A,0))</f>
+        <v>91.953020170000002</v>
       </c>
       <c r="D77">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A77,Locations!A:A,0))</f>
-        <v>19.44089555</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A78,Locations!A:A,0))</f>
+        <v>1.301953607</v>
       </c>
       <c r="E77">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IFERROR(FIND("W",A78),0)</f>
+        <v>0</v>
       </c>
       <c r="F77">
-        <f t="shared" ref="F77:F118" si="11">IFERROR(FIND("C",A77),0)</f>
-        <v>0</v>
+        <f>IFERROR(FIND("C",A78),0)</f>
+        <v>1</v>
       </c>
       <c r="G77">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>10.787770743461977</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B78">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A78,Locations!A:A,0))</f>
-        <v>2</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A79,Locations!A:A,0))</f>
+        <v>14</v>
       </c>
       <c r="C78">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A78,Locations!A:A,0))</f>
-        <v>77.776312700000005</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A79,Locations!A:A,0))</f>
+        <v>76.546860899999999</v>
       </c>
       <c r="D78">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A78,Locations!A:A,0))</f>
-        <v>15.404496050000001</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A79,Locations!A:A,0))</f>
+        <v>19.44089555</v>
       </c>
       <c r="E78">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IFERROR(FIND("W",A79),0)</f>
+        <v>1</v>
       </c>
       <c r="F78">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f>IFERROR(FIND("C",A79),0)</f>
+        <v>0</v>
       </c>
       <c r="G78">
         <f t="shared" si="10"/>
-        <v>4.219487249906499</v>
+        <v>23.798549499163425</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B79">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A79,Locations!A:A,0))</f>
-        <v>3</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A80,Locations!A:A,0))</f>
+        <v>15</v>
       </c>
       <c r="C79">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A79,Locations!A:A,0))</f>
-        <v>80.384648810000002</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A80,Locations!A:A,0))</f>
+        <v>17.199441319999998</v>
       </c>
       <c r="D79">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A79,Locations!A:A,0))</f>
-        <v>12.45770707</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A80,Locations!A:A,0))</f>
+        <v>64.959539410000005</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79:E118" si="12">IFERROR(FIND("W",A79),0)</f>
-        <v>0</v>
+        <f>IFERROR(FIND("W",A80),0)</f>
+        <v>1</v>
       </c>
       <c r="F79">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f>IFERROR(FIND("C",A80),0)</f>
+        <v>0</v>
       </c>
       <c r="G79">
         <f t="shared" si="10"/>
-        <v>3.9353503726325765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B80">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A80,Locations!A:A,0))</f>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A82,Locations!A:A,0))</f>
         <v>3</v>
       </c>
       <c r="C80">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A80,Locations!A:A,0))</f>
-        <v>83.577184310000007</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A82,Locations!A:A,0))</f>
+        <v>24.452271499999998</v>
       </c>
       <c r="D80">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A80,Locations!A:A,0))</f>
-        <v>12.010237610000001</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A82,Locations!A:A,0))</f>
+        <v>64.912667369999994</v>
       </c>
       <c r="E80">
-        <f t="shared" si="12"/>
+        <f>IFERROR(FIND("W",A82),0)</f>
         <v>0</v>
       </c>
       <c r="F80">
-        <f t="shared" si="11"/>
+        <f>IFERROR(FIND("C",A82),0)</f>
         <v>1</v>
       </c>
       <c r="G80">
         <f t="shared" si="10"/>
-        <v>3.2237418997793506</v>
+        <v>7.2529816357173136</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="B81">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A81,Locations!A:A,0))</f>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A83,Locations!A:A,0))</f>
         <v>4</v>
       </c>
       <c r="C81">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A81,Locations!A:A,0))</f>
-        <v>84.136991230000007</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A83,Locations!A:A,0))</f>
+        <v>24.590071340000001</v>
       </c>
       <c r="D81">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A81,Locations!A:A,0))</f>
-        <v>8.73738831</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A83,Locations!A:A,0))</f>
+        <v>58.27100403</v>
       </c>
       <c r="E81">
-        <f t="shared" si="12"/>
+        <f>IFERROR(FIND("W",A83),0)</f>
         <v>0</v>
       </c>
       <c r="F81">
-        <f t="shared" si="11"/>
+        <f>IFERROR(FIND("C",A83),0)</f>
         <v>1</v>
       </c>
       <c r="G81">
         <f t="shared" si="10"/>
-        <v>3.320380449314563</v>
+        <v>6.6430927073016157</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A82,Locations!A:A,0))</f>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A84,Locations!A:A,0))</f>
         <v>2</v>
       </c>
       <c r="C82">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A82,Locations!A:A,0))</f>
-        <v>16.76881556</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A84,Locations!A:A,0))</f>
+        <v>17.078168760000001</v>
       </c>
       <c r="D82">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A82,Locations!A:A,0))</f>
-        <v>76.357402059999998</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A84,Locations!A:A,0))</f>
+        <v>56.60782777</v>
       </c>
       <c r="E82">
-        <f t="shared" si="12"/>
+        <f>IFERROR(FIND("W",A84),0)</f>
         <v>0</v>
       </c>
       <c r="F82">
-        <f t="shared" si="11"/>
+        <f>IFERROR(FIND("C",A84),0)</f>
         <v>1</v>
       </c>
       <c r="G82">
         <f t="shared" si="10"/>
-        <v>95.451230231224201</v>
+        <v>7.6938180146945419</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B83">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A83,Locations!A:A,0))</f>
-        <v>14</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A85,Locations!A:A,0))</f>
+        <v>3</v>
       </c>
       <c r="C83">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A83,Locations!A:A,0))</f>
-        <v>76.546860899999999</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A85,Locations!A:A,0))</f>
+        <v>16.67353541</v>
       </c>
       <c r="D83">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A83,Locations!A:A,0))</f>
-        <v>19.44089555</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A85,Locations!A:A,0))</f>
+        <v>58.868218849999998</v>
       </c>
       <c r="E83">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f>IFERROR(FIND("W",A85),0)</f>
+        <v>0</v>
       </c>
       <c r="F83">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>IFERROR(FIND("C",A85),0)</f>
+        <v>1</v>
       </c>
       <c r="G83">
         <f t="shared" si="10"/>
-        <v>82.540313895538148</v>
+        <v>2.2963222732177164</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B84">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A84,Locations!A:A,0))</f>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A86,Locations!A:A,0))</f>
         <v>15</v>
       </c>
       <c r="C84">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A84,Locations!A:A,0))</f>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A86,Locations!A:A,0))</f>
         <v>17.199441319999998</v>
       </c>
       <c r="D84">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A84,Locations!A:A,0))</f>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A86,Locations!A:A,0))</f>
         <v>64.959539410000005</v>
       </c>
       <c r="E84">
-        <f t="shared" si="12"/>
+        <f>IFERROR(FIND("W",A86),0)</f>
         <v>1</v>
       </c>
       <c r="F84">
-        <f t="shared" si="11"/>
+        <f>IFERROR(FIND("C",A86),0)</f>
         <v>0</v>
       </c>
       <c r="G84">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>6.1139809609493989</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B85">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A85,Locations!A:A,0))</f>
-        <v>2</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A87,Locations!A:A,0))</f>
+        <v>19</v>
       </c>
       <c r="C85">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A85,Locations!A:A,0))</f>
-        <v>17.650651140000001</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A87,Locations!A:A,0))</f>
+        <v>59.011789649999997</v>
       </c>
       <c r="D85">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A85,Locations!A:A,0))</f>
-        <v>66.474008620000006</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A87,Locations!A:A,0))</f>
+        <v>20.001278630000002</v>
       </c>
       <c r="E85">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>IFERROR(FIND("W",A87),0)</f>
+        <v>1</v>
       </c>
       <c r="F85">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f>IFERROR(FIND("C",A87),0)</f>
+        <v>0</v>
       </c>
       <c r="G85">
         <f t="shared" si="10"/>
-        <v>1.5802554507744826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="B86">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A86,Locations!A:A,0))</f>
-        <v>3</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A88,Locations!A:A,0))</f>
+        <v>2</v>
       </c>
       <c r="C86">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A86,Locations!A:A,0))</f>
-        <v>24.452271499999998</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A88,Locations!A:A,0))</f>
+        <v>58.315908010000001</v>
       </c>
       <c r="D86">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A86,Locations!A:A,0))</f>
-        <v>64.912667369999994</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A88,Locations!A:A,0))</f>
+        <v>23.795869280000002</v>
       </c>
       <c r="E86">
-        <f t="shared" si="12"/>
+        <f>IFERROR(FIND("W",A88),0)</f>
         <v>0</v>
       </c>
       <c r="F86">
-        <f t="shared" si="11"/>
+        <f>IFERROR(FIND("C",A88),0)</f>
         <v>1</v>
       </c>
       <c r="G86">
         <f t="shared" si="10"/>
-        <v>6.9785260636124375</v>
+        <v>3.857871104373046</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B87">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A87,Locations!A:A,0))</f>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A89,Locations!A:A,0))</f>
         <v>4</v>
       </c>
       <c r="C87">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A87,Locations!A:A,0))</f>
-        <v>24.590071340000001</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A89,Locations!A:A,0))</f>
+        <v>41.080648109999998</v>
       </c>
       <c r="D87">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A87,Locations!A:A,0))</f>
-        <v>58.27100403</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A89,Locations!A:A,0))</f>
+        <v>14.586683000000001</v>
       </c>
       <c r="E87">
-        <f t="shared" si="12"/>
+        <f>IFERROR(FIND("W",A89),0)</f>
         <v>0</v>
       </c>
       <c r="F87">
-        <f t="shared" si="11"/>
+        <f>IFERROR(FIND("C",A89),0)</f>
         <v>1</v>
       </c>
       <c r="G87">
         <f t="shared" si="10"/>
-        <v>6.6430927073016157</v>
+        <v>19.541322774067481</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B88">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A88,Locations!A:A,0))</f>
-        <v>2</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A90,Locations!A:A,0))</f>
+        <v>1</v>
       </c>
       <c r="C88">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A88,Locations!A:A,0))</f>
-        <v>17.078168760000001</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A90,Locations!A:A,0))</f>
+        <v>37.481699480000003</v>
       </c>
       <c r="D88">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A88,Locations!A:A,0))</f>
-        <v>56.60782777</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A90,Locations!A:A,0))</f>
+        <v>19.234510499999999</v>
       </c>
       <c r="E88">
-        <f t="shared" si="12"/>
+        <f>IFERROR(FIND("W",A90),0)</f>
         <v>0</v>
       </c>
       <c r="F88">
-        <f t="shared" si="11"/>
+        <f>IFERROR(FIND("C",A90),0)</f>
         <v>1</v>
       </c>
       <c r="G88">
         <f t="shared" si="10"/>
-        <v>7.6938180146945419</v>
+        <v>5.8783272885349858</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B89">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A89,Locations!A:A,0))</f>
-        <v>3</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A91,Locations!A:A,0))</f>
+        <v>4</v>
       </c>
       <c r="C89">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A89,Locations!A:A,0))</f>
-        <v>16.67353541</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A91,Locations!A:A,0))</f>
+        <v>50.081385220000001</v>
       </c>
       <c r="D89">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A89,Locations!A:A,0))</f>
-        <v>58.868218849999998</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A91,Locations!A:A,0))</f>
+        <v>9.7234469010000009</v>
       </c>
       <c r="E89">
-        <f t="shared" si="12"/>
+        <f>IFERROR(FIND("W",A91),0)</f>
         <v>0</v>
       </c>
       <c r="F89">
-        <f t="shared" si="11"/>
+        <f>IFERROR(FIND("C",A91),0)</f>
         <v>1</v>
       </c>
       <c r="G89">
         <f t="shared" si="10"/>
-        <v>2.2963222732177164</v>
+        <v>15.786462920204199</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B90">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A90,Locations!A:A,0))</f>
-        <v>15</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A92,Locations!A:A,0))</f>
+        <v>4</v>
       </c>
       <c r="C90">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A90,Locations!A:A,0))</f>
-        <v>17.199441319999998</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A92,Locations!A:A,0))</f>
+        <v>58.810762400000002</v>
       </c>
       <c r="D90">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A90,Locations!A:A,0))</f>
-        <v>64.959539410000005</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A92,Locations!A:A,0))</f>
+        <v>6.1323158500000003</v>
       </c>
       <c r="E90">
-        <f t="shared" ref="E90" si="13">IFERROR(FIND("W",A90),0)</f>
-        <v>1</v>
+        <f>IFERROR(FIND("W",A92),0)</f>
+        <v>0</v>
       </c>
       <c r="F90">
-        <f t="shared" ref="F90" si="14">IFERROR(FIND("C",A90),0)</f>
-        <v>0</v>
+        <f>IFERROR(FIND("C",A92),0)</f>
+        <v>1</v>
       </c>
       <c r="G90">
-        <f t="shared" ref="G90" si="15">IF(AND(E89=1,E90=1),0,SQRT((C89-C90)*(C89-C90)+(D89-D90)*(D89-D90)))</f>
-        <v>6.1139809609493989</v>
+        <f t="shared" ref="G90" si="11">IF(AND(E89=1,E90=1),0,SQRT((C89-C90)*(C89-C90)+(D89-D90)*(D89-D90)))</f>
+        <v>9.4391868387145053</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B91">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A91,Locations!A:A,0))</f>
-        <v>19</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A93,Locations!A:A,0))</f>
+        <v>4</v>
       </c>
       <c r="C91">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A91,Locations!A:A,0))</f>
-        <v>59.011789649999997</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A93,Locations!A:A,0))</f>
+        <v>65.653493490000002</v>
       </c>
       <c r="D91">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A91,Locations!A:A,0))</f>
-        <v>20.001278630000002</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A93,Locations!A:A,0))</f>
+        <v>11.38231736</v>
       </c>
       <c r="E91">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f>IFERROR(FIND("W",A93),0)</f>
+        <v>0</v>
       </c>
       <c r="F91">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>IFERROR(FIND("C",A93),0)</f>
+        <v>1</v>
       </c>
       <c r="G91">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8.6247020021015732</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B92">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A92,Locations!A:A,0))</f>
-        <v>2</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A94,Locations!A:A,0))</f>
+        <v>19</v>
       </c>
       <c r="C92">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A92,Locations!A:A,0))</f>
-        <v>58.315908010000001</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A94,Locations!A:A,0))</f>
+        <v>59.011789649999997</v>
       </c>
       <c r="D92">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A92,Locations!A:A,0))</f>
-        <v>23.795869280000002</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A94,Locations!A:A,0))</f>
+        <v>20.001278630000002</v>
       </c>
       <c r="E92">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>IFERROR(FIND("W",A94),0)</f>
+        <v>1</v>
       </c>
       <c r="F92">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f>IFERROR(FIND("C",A94),0)</f>
+        <v>0</v>
       </c>
       <c r="G92">
         <f t="shared" si="10"/>
-        <v>3.857871104373046</v>
+        <v>10.88111774001324</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B93">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A93,Locations!A:A,0))</f>
-        <v>4</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A95,Locations!A:A,0))</f>
+        <v>18</v>
       </c>
       <c r="C93">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A93,Locations!A:A,0))</f>
-        <v>55.011979820000001</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A95,Locations!A:A,0))</f>
+        <v>95.184560980000001</v>
       </c>
       <c r="D93">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A93,Locations!A:A,0))</f>
-        <v>17.208276600000001</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A95,Locations!A:A,0))</f>
+        <v>27.388523719999998</v>
       </c>
       <c r="E93">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>IFERROR(FIND("W",A95),0)</f>
+        <v>1</v>
       </c>
       <c r="F93">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f>IFERROR(FIND("C",A95),0)</f>
+        <v>0</v>
       </c>
       <c r="G93">
         <f t="shared" si="10"/>
-        <v>7.369689193057348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B94">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A94,Locations!A:A,0))</f>
-        <v>4</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A96,Locations!A:A,0))</f>
+        <v>3</v>
       </c>
       <c r="C94">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A94,Locations!A:A,0))</f>
-        <v>58.121815050000002</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A96,Locations!A:A,0))</f>
+        <v>91.592212770000003</v>
       </c>
       <c r="D94">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A94,Locations!A:A,0))</f>
-        <v>13.838399559999999</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A96,Locations!A:A,0))</f>
+        <v>34.453530280000003</v>
       </c>
       <c r="E94">
-        <f t="shared" si="12"/>
+        <f>IFERROR(FIND("W",A96),0)</f>
         <v>0</v>
       </c>
       <c r="F94">
-        <f t="shared" si="11"/>
+        <f>IFERROR(FIND("C",A96),0)</f>
         <v>1</v>
       </c>
       <c r="G94">
         <f t="shared" si="10"/>
-        <v>4.5855366558853659</v>
+        <v>7.9258616790058403</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="B95">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A95,Locations!A:A,0))</f>
-        <v>2</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A97,Locations!A:A,0))</f>
+        <v>4</v>
       </c>
       <c r="C95">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A95,Locations!A:A,0))</f>
-        <v>59.154387810000003</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A97,Locations!A:A,0))</f>
+        <v>74.393210600000003</v>
       </c>
       <c r="D95">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A95,Locations!A:A,0))</f>
-        <v>11.04931584</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A97,Locations!A:A,0))</f>
+        <v>29.533835419999999</v>
       </c>
       <c r="E95">
-        <f t="shared" si="12"/>
+        <f>IFERROR(FIND("W",A97),0)</f>
         <v>0</v>
       </c>
       <c r="F95">
-        <f t="shared" si="11"/>
+        <f>IFERROR(FIND("C",A97),0)</f>
         <v>1</v>
       </c>
       <c r="G95">
         <f t="shared" si="10"/>
-        <v>2.9740871711943906</v>
+        <v>17.888797420709285</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="B96">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A96,Locations!A:A,0))</f>
-        <v>4</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A98,Locations!A:A,0))</f>
+        <v>3</v>
       </c>
       <c r="C96">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A96,Locations!A:A,0))</f>
-        <v>58.810762400000002</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A98,Locations!A:A,0))</f>
+        <v>84.609112820000007</v>
       </c>
       <c r="D96">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A96,Locations!A:A,0))</f>
-        <v>6.1323158500000003</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A98,Locations!A:A,0))</f>
+        <v>44.192308160000003</v>
       </c>
       <c r="E96">
-        <f t="shared" si="12"/>
+        <f>IFERROR(FIND("W",A98),0)</f>
         <v>0</v>
       </c>
       <c r="F96">
-        <f t="shared" si="11"/>
+        <f>IFERROR(FIND("C",A98),0)</f>
         <v>1</v>
       </c>
       <c r="G96">
         <f t="shared" si="10"/>
-        <v>4.9289925262732615</v>
+        <v>17.867162092451174</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="B97">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A97,Locations!A:A,0))</f>
-        <v>19</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A99,Locations!A:A,0))</f>
+        <v>2</v>
       </c>
       <c r="C97">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A97,Locations!A:A,0))</f>
-        <v>59.011789649999997</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A99,Locations!A:A,0))</f>
+        <v>87.68639718</v>
       </c>
       <c r="D97">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A97,Locations!A:A,0))</f>
-        <v>20.001278630000002</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A99,Locations!A:A,0))</f>
+        <v>42.583994990000001</v>
       </c>
       <c r="E97">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f>IFERROR(FIND("W",A99),0)</f>
+        <v>0</v>
       </c>
       <c r="F97">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>IFERROR(FIND("C",A99),0)</f>
+        <v>1</v>
       </c>
       <c r="G97">
         <f t="shared" si="10"/>
-        <v>13.870419624087365</v>
+        <v>3.4722255521633416</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A98,Locations!A:A,0))</f>
-        <v>18</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A100,Locations!A:A,0))</f>
+        <v>2</v>
       </c>
       <c r="C98">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A98,Locations!A:A,0))</f>
-        <v>95.184560980000001</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A100,Locations!A:A,0))</f>
+        <v>85.345895979999995</v>
       </c>
       <c r="D98">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A98,Locations!A:A,0))</f>
-        <v>27.388523719999998</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A100,Locations!A:A,0))</f>
+        <v>57.582241580000002</v>
       </c>
       <c r="E98">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f>IFERROR(FIND("W",A100),0)</f>
+        <v>0</v>
       </c>
       <c r="F98">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>IFERROR(FIND("C",A100),0)</f>
+        <v>1</v>
       </c>
       <c r="G98">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>15.179767674165772</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="B99">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A99,Locations!A:A,0))</f>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A101,Locations!A:A,0))</f>
         <v>3</v>
       </c>
       <c r="C99">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A99,Locations!A:A,0))</f>
-        <v>91.592212770000003</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A101,Locations!A:A,0))</f>
+        <v>89.522648889999999</v>
       </c>
       <c r="D99">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A99,Locations!A:A,0))</f>
-        <v>34.453530280000003</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A101,Locations!A:A,0))</f>
+        <v>55.758484789999997</v>
       </c>
       <c r="E99">
-        <f t="shared" si="12"/>
+        <f>IFERROR(FIND("W",A101),0)</f>
         <v>0</v>
       </c>
       <c r="F99">
-        <f t="shared" si="11"/>
+        <f>IFERROR(FIND("C",A101),0)</f>
         <v>1</v>
       </c>
       <c r="G99">
         <f t="shared" si="10"/>
-        <v>7.9258616790058403</v>
+        <v>4.5575600599733876</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B100">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A100,Locations!A:A,0))</f>
-        <v>2</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A102,Locations!A:A,0))</f>
+        <v>18</v>
       </c>
       <c r="C100">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A100,Locations!A:A,0))</f>
-        <v>87.68639718</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A102,Locations!A:A,0))</f>
+        <v>95.184560980000001</v>
       </c>
       <c r="D100">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A100,Locations!A:A,0))</f>
-        <v>42.583994990000001</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A102,Locations!A:A,0))</f>
+        <v>27.388523719999998</v>
       </c>
       <c r="E100">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>IFERROR(FIND("W",A102),0)</f>
+        <v>1</v>
       </c>
       <c r="F100">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f>IFERROR(FIND("C",A102),0)</f>
+        <v>0</v>
       </c>
       <c r="G100">
         <f t="shared" si="10"/>
-        <v>9.0199696132327638</v>
+        <v>28.929430337084131</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B101">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A101,Locations!A:A,0))</f>
-        <v>3</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A104,Locations!A:A,0))</f>
+        <v>1</v>
       </c>
       <c r="C101">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A101,Locations!A:A,0))</f>
-        <v>84.609112820000007</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A104,Locations!A:A,0))</f>
+        <v>34.80062968</v>
       </c>
       <c r="D101">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A101,Locations!A:A,0))</f>
-        <v>44.192308160000003</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A104,Locations!A:A,0))</f>
+        <v>97.085704250000006</v>
       </c>
       <c r="E101">
-        <f t="shared" si="12"/>
+        <f>IFERROR(FIND("W",A104),0)</f>
         <v>0</v>
       </c>
       <c r="F101">
-        <f t="shared" si="11"/>
+        <f>IFERROR(FIND("C",A104),0)</f>
         <v>1</v>
       </c>
       <c r="G101">
         <f t="shared" si="10"/>
-        <v>3.4722255521633416</v>
+        <v>92.216680340785047</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B102">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A102,Locations!A:A,0))</f>
-        <v>1</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A105,Locations!A:A,0))</f>
+        <v>3</v>
       </c>
       <c r="C102">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A102,Locations!A:A,0))</f>
-        <v>82.525953380000004</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A105,Locations!A:A,0))</f>
+        <v>33.698868419999997</v>
       </c>
       <c r="D102">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A102,Locations!A:A,0))</f>
-        <v>22.86137489</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A105,Locations!A:A,0))</f>
+        <v>99.557225669999994</v>
       </c>
       <c r="E102">
-        <f t="shared" si="12"/>
+        <f>IFERROR(FIND("W",A105),0)</f>
         <v>0</v>
       </c>
       <c r="F102">
-        <f t="shared" si="11"/>
+        <f>IFERROR(FIND("C",A105),0)</f>
         <v>1</v>
       </c>
       <c r="G102">
         <f t="shared" si="10"/>
-        <v>21.432411610027792</v>
+        <v>2.7059741320928312</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B103">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A103,Locations!A:A,0))</f>
-        <v>4</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A106,Locations!A:A,0))</f>
+        <v>3</v>
       </c>
       <c r="C103">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A103,Locations!A:A,0))</f>
-        <v>91.953020170000002</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A106,Locations!A:A,0))</f>
+        <v>10.69427168</v>
       </c>
       <c r="D103">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A103,Locations!A:A,0))</f>
-        <v>1.301953607</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A106,Locations!A:A,0))</f>
+        <v>96.105947909999998</v>
       </c>
       <c r="E103">
-        <f t="shared" si="12"/>
+        <f>IFERROR(FIND("W",A106),0)</f>
         <v>0</v>
       </c>
       <c r="F103">
-        <f t="shared" si="11"/>
+        <f>IFERROR(FIND("C",A106),0)</f>
         <v>1</v>
       </c>
       <c r="G103">
         <f t="shared" si="10"/>
-        <v>23.530368342229455</v>
+        <v>23.262046112642135</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="B104">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A104,Locations!A:A,0))</f>
-        <v>18</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A107,Locations!A:A,0))</f>
+        <v>2</v>
       </c>
       <c r="C104">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A104,Locations!A:A,0))</f>
-        <v>95.184560980000001</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A107,Locations!A:A,0))</f>
+        <v>0</v>
       </c>
       <c r="D104">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A104,Locations!A:A,0))</f>
-        <v>27.388523719999998</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A107,Locations!A:A,0))</f>
+        <v>76.589959059999998</v>
       </c>
       <c r="E104">
-        <f t="shared" ref="E104" si="16">IFERROR(FIND("W",A104),0)</f>
-        <v>1</v>
+        <f>IFERROR(FIND("W",A107),0)</f>
+        <v>0</v>
       </c>
       <c r="F104">
-        <f t="shared" ref="F104" si="17">IFERROR(FIND("C",A104),0)</f>
-        <v>0</v>
+        <f>IFERROR(FIND("C",A107),0)</f>
+        <v>1</v>
       </c>
       <c r="G104">
-        <f t="shared" ref="G104" si="18">IF(AND(E103=1,E104=1),0,SQRT((C103-C104)*(C103-C104)+(D103-D104)*(D103-D104)))</f>
-        <v>26.285965766301228</v>
+        <f t="shared" ref="G104" si="12">IF(AND(E103=1,E104=1),0,SQRT((C103-C104)*(C103-C104)+(D103-D104)*(D103-D104)))</f>
+        <v>22.254016885923637</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="B105">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A105,Locations!A:A,0))</f>
-        <v>18</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A108,Locations!A:A,0))</f>
+        <v>4</v>
       </c>
       <c r="C105">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A105,Locations!A:A,0))</f>
-        <v>53.495464239999997</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A108,Locations!A:A,0))</f>
+        <v>0</v>
       </c>
       <c r="D105">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A105,Locations!A:A,0))</f>
-        <v>94.309351579999998</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A108,Locations!A:A,0))</f>
+        <v>66.803999189999999</v>
       </c>
       <c r="E105">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f>IFERROR(FIND("W",A108),0)</f>
+        <v>0</v>
       </c>
       <c r="F105">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>IFERROR(FIND("C",A108),0)</f>
+        <v>1</v>
       </c>
       <c r="G105">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>9.7859598699999992</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="B106">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A106,Locations!A:A,0))</f>
-        <v>3</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A109,Locations!A:A,0))</f>
+        <v>18</v>
       </c>
       <c r="C106">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A106,Locations!A:A,0))</f>
-        <v>57.533646040000001</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A109,Locations!A:A,0))</f>
+        <v>53.495464239999997</v>
       </c>
       <c r="D106">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A106,Locations!A:A,0))</f>
-        <v>83.334309919999995</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A109,Locations!A:A,0))</f>
+        <v>94.309351579999998</v>
       </c>
       <c r="E106">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>IFERROR(FIND("W",A109),0)</f>
+        <v>1</v>
       </c>
       <c r="F106">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f>IFERROR(FIND("C",A109),0)</f>
+        <v>0</v>
       </c>
       <c r="G106">
         <f t="shared" si="10"/>
-        <v>11.694376926052405</v>
+        <v>60.15238236638011</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B107">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A107,Locations!A:A,0))</f>
-        <v>2</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A110,Locations!A:A,0))</f>
+        <v>19</v>
       </c>
       <c r="C107">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A107,Locations!A:A,0))</f>
-        <v>61.556527340000002</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A110,Locations!A:A,0))</f>
+        <v>4.8055057430000003</v>
       </c>
       <c r="D107">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A107,Locations!A:A,0))</f>
-        <v>81.352181659999999</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A110,Locations!A:A,0))</f>
+        <v>22.879895560000001</v>
       </c>
       <c r="E107">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>IFERROR(FIND("W",A110),0)</f>
+        <v>1</v>
       </c>
       <c r="F107">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f>IFERROR(FIND("C",A110),0)</f>
+        <v>0</v>
       </c>
       <c r="G107">
         <f t="shared" si="10"/>
-        <v>4.4846857630139834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B108">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A108,Locations!A:A,0))</f>
-        <v>3</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A111,Locations!A:A,0))</f>
+        <v>4</v>
       </c>
       <c r="C108">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A108,Locations!A:A,0))</f>
-        <v>52.029055110000002</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A111,Locations!A:A,0))</f>
+        <v>0.82499087699999996</v>
       </c>
       <c r="D108">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A108,Locations!A:A,0))</f>
-        <v>58.817630489999999</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A111,Locations!A:A,0))</f>
+        <v>21.39713751</v>
       </c>
       <c r="E108">
-        <f t="shared" si="12"/>
+        <f>IFERROR(FIND("W",A111),0)</f>
         <v>0</v>
       </c>
       <c r="F108">
-        <f t="shared" si="11"/>
+        <f>IFERROR(FIND("C",A111),0)</f>
         <v>1</v>
       </c>
       <c r="G108">
         <f t="shared" si="10"/>
-        <v>24.465868542252277</v>
+        <v>4.2477135064981493</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B109">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A109,Locations!A:A,0))</f>
-        <v>3</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A112,Locations!A:A,0))</f>
+        <v>1</v>
       </c>
       <c r="C109">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A109,Locations!A:A,0))</f>
-        <v>51.945085249999998</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A112,Locations!A:A,0))</f>
+        <v>1.5812249460000001</v>
       </c>
       <c r="D109">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A109,Locations!A:A,0))</f>
-        <v>54.734878899999998</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A112,Locations!A:A,0))</f>
+        <v>29.495101890000001</v>
       </c>
       <c r="E109">
-        <f t="shared" si="12"/>
+        <f>IFERROR(FIND("W",A112),0)</f>
         <v>0</v>
       </c>
       <c r="F109">
-        <f t="shared" si="11"/>
+        <f>IFERROR(FIND("C",A112),0)</f>
         <v>1</v>
       </c>
       <c r="G109">
         <f t="shared" si="10"/>
-        <v>4.0836150018134614</v>
+        <v>8.1331984524456971</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B110">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A110,Locations!A:A,0))</f>
-        <v>4</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A113,Locations!A:A,0))</f>
+        <v>3</v>
       </c>
       <c r="C110">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A110,Locations!A:A,0))</f>
-        <v>22.711388150000001</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A113,Locations!A:A,0))</f>
+        <v>15.45336629</v>
       </c>
       <c r="D110">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A110,Locations!A:A,0))</f>
-        <v>35.619728139999999</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A113,Locations!A:A,0))</f>
+        <v>19.954045650000001</v>
       </c>
       <c r="E110">
-        <f t="shared" si="12"/>
+        <f>IFERROR(FIND("W",A113),0)</f>
         <v>0</v>
       </c>
       <c r="F110">
-        <f t="shared" si="11"/>
+        <f>IFERROR(FIND("C",A113),0)</f>
         <v>1</v>
       </c>
       <c r="G110">
         <f t="shared" si="10"/>
-        <v>34.928470260119852</v>
+        <v>16.836509722705507</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B111">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A111,Locations!A:A,0))</f>
-        <v>3</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A114,Locations!A:A,0))</f>
+        <v>2</v>
       </c>
       <c r="C111">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A111,Locations!A:A,0))</f>
-        <v>10.69427168</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A114,Locations!A:A,0))</f>
+        <v>20.335854829999999</v>
       </c>
       <c r="D111">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A111,Locations!A:A,0))</f>
-        <v>96.105947909999998</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A114,Locations!A:A,0))</f>
+        <v>17.72262855</v>
       </c>
       <c r="E111">
-        <f t="shared" si="12"/>
+        <f>IFERROR(FIND("W",A114),0)</f>
         <v>0</v>
       </c>
       <c r="F111">
-        <f t="shared" si="11"/>
+        <f>IFERROR(FIND("C",A114),0)</f>
         <v>1</v>
       </c>
       <c r="G111">
         <f t="shared" si="10"/>
-        <v>61.668418743456392</v>
+        <v>5.3682321687315033</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B112">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A112,Locations!A:A,0))</f>
-        <v>18</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A115,Locations!A:A,0))</f>
+        <v>1</v>
       </c>
       <c r="C112">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A112,Locations!A:A,0))</f>
-        <v>53.495464239999997</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A115,Locations!A:A,0))</f>
+        <v>34.415598559999999</v>
       </c>
       <c r="D112">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A112,Locations!A:A,0))</f>
-        <v>94.309351579999998</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A115,Locations!A:A,0))</f>
+        <v>9.4117582130000006</v>
       </c>
       <c r="E112">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f>IFERROR(FIND("W",A115),0)</f>
+        <v>0</v>
       </c>
       <c r="F112">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>IFERROR(FIND("C",A115),0)</f>
+        <v>1</v>
       </c>
       <c r="G112">
         <f t="shared" si="10"/>
-        <v>42.838882372573266</v>
+        <v>16.349610064490861</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B113">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A113,Locations!A:A,0))</f>
-        <v>19</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A116,Locations!A:A,0))</f>
+        <v>1</v>
       </c>
       <c r="C113">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A113,Locations!A:A,0))</f>
-        <v>4.8055057430000003</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A116,Locations!A:A,0))</f>
+        <v>39.314119339999998</v>
       </c>
       <c r="D113">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A113,Locations!A:A,0))</f>
-        <v>22.879895560000001</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A116,Locations!A:A,0))</f>
+        <v>0</v>
       </c>
       <c r="E113">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f>IFERROR(FIND("W",A116),0)</f>
+        <v>0</v>
       </c>
       <c r="F113">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>IFERROR(FIND("C",A116),0)</f>
+        <v>1</v>
       </c>
       <c r="G113">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>10.610216703350821</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B114">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A114,Locations!A:A,0))</f>
-        <v>4</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A117,Locations!A:A,0))</f>
+        <v>1</v>
       </c>
       <c r="C114">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A114,Locations!A:A,0))</f>
-        <v>0.82499087699999996</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A117,Locations!A:A,0))</f>
+        <v>16.72936035</v>
       </c>
       <c r="D114">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A114,Locations!A:A,0))</f>
-        <v>21.39713751</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A117,Locations!A:A,0))</f>
+        <v>0</v>
       </c>
       <c r="E114">
-        <f t="shared" si="12"/>
+        <f>IFERROR(FIND("W",A117),0)</f>
         <v>0</v>
       </c>
       <c r="F114">
-        <f t="shared" si="11"/>
+        <f>IFERROR(FIND("C",A117),0)</f>
         <v>1</v>
       </c>
       <c r="G114">
         <f t="shared" si="10"/>
-        <v>4.2477135064981493</v>
+        <v>22.584758989999997</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="B115">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A115,Locations!A:A,0))</f>
-        <v>2</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A118,Locations!A:A,0))</f>
+        <v>4</v>
       </c>
       <c r="C115">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A115,Locations!A:A,0))</f>
-        <v>4.5588906360000001</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A118,Locations!A:A,0))</f>
+        <v>1.1736206</v>
       </c>
       <c r="D115">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A115,Locations!A:A,0))</f>
-        <v>8.0746192089999997</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A118,Locations!A:A,0))</f>
+        <v>3.9479617409999999</v>
       </c>
       <c r="E115">
-        <f t="shared" si="12"/>
+        <f>IFERROR(FIND("W",A118),0)</f>
         <v>0</v>
       </c>
       <c r="F115">
-        <f t="shared" si="11"/>
+        <f>IFERROR(FIND("C",A118),0)</f>
         <v>1</v>
       </c>
       <c r="G115">
         <f t="shared" si="10"/>
-        <v>13.835877322769967</v>
+        <v>16.048907784585523</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B116">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A116,Locations!A:A,0))</f>
-        <v>1</v>
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A119,Locations!A:A,0))</f>
+        <v>19</v>
       </c>
       <c r="C116">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A116,Locations!A:A,0))</f>
-        <v>8.1405563070000007</v>
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A119,Locations!A:A,0))</f>
+        <v>4.8055057430000003</v>
       </c>
       <c r="D116">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A116,Locations!A:A,0))</f>
-        <v>9.6321880039999996</v>
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A119,Locations!A:A,0))</f>
+        <v>22.879895560000001</v>
       </c>
       <c r="E116">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>IFERROR(FIND("W",A119),0)</f>
+        <v>1</v>
       </c>
       <c r="F116">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f>IFERROR(FIND("C",A119),0)</f>
+        <v>0</v>
       </c>
       <c r="G116">
         <f t="shared" si="10"/>
-        <v>3.9056816984974128</v>
+        <v>19.277155075864801</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>32</v>
-      </c>
-      <c r="B117">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A117,Locations!A:A,0))</f>
-        <v>4</v>
-      </c>
-      <c r="C117">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A117,Locations!A:A,0))</f>
-        <v>0</v>
-      </c>
-      <c r="D117">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A117,Locations!A:A,0))</f>
-        <v>7.0138394079999999</v>
+        <v>43</v>
+      </c>
+      <c r="B117" t="e">
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A120,Locations!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C117" t="e">
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A120,Locations!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D117" t="e">
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A120,Locations!A:A,0))</f>
+        <v>#N/A</v>
       </c>
       <c r="E117">
-        <f t="shared" si="12"/>
+        <f>IFERROR(FIND("W",A120),0)</f>
         <v>0</v>
       </c>
       <c r="F117">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="G117">
+        <f>IFERROR(FIND("C",A120),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G117" t="e">
         <f t="shared" si="10"/>
-        <v>8.5512809775853267</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>90</v>
       </c>
-      <c r="B118">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A118,Locations!A:A,0))</f>
-        <v>4</v>
-      </c>
-      <c r="C118">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A118,Locations!A:A,0))</f>
-        <v>1.1736206</v>
-      </c>
-      <c r="D118">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A118,Locations!A:A,0))</f>
-        <v>3.9479617409999999</v>
+      <c r="B118" t="e">
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A121,Locations!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C118" t="e">
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A121,Locations!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D118" t="e">
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A121,Locations!A:A,0))</f>
+        <v>#N/A</v>
       </c>
       <c r="E118">
-        <f t="shared" si="12"/>
+        <f>IFERROR(FIND("W",A121),0)</f>
         <v>0</v>
       </c>
       <c r="F118">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="G118">
+        <f>IFERROR(FIND("C",A121),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G118" t="e">
         <f t="shared" si="10"/>
-        <v>3.2828327983242955</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>18</v>
       </c>
-      <c r="B119">
-        <f>INDEX(Locations!D:D,MATCH(Sheet1!A119,Locations!A:A,0))</f>
-        <v>19</v>
-      </c>
-      <c r="C119">
-        <f>INDEX(Locations!B:B,MATCH(Sheet1!A119,Locations!A:A,0))</f>
-        <v>4.8055057430000003</v>
-      </c>
-      <c r="D119">
-        <f>INDEX(Locations!C:C,MATCH(Sheet1!A119,Locations!A:A,0))</f>
-        <v>22.879895560000001</v>
+      <c r="B119" t="e">
+        <f>INDEX(Locations!D:D,MATCH(Sheet1!A122,Locations!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C119" t="e">
+        <f>INDEX(Locations!B:B,MATCH(Sheet1!A122,Locations!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D119" t="e">
+        <f>INDEX(Locations!C:C,MATCH(Sheet1!A122,Locations!A:A,0))</f>
+        <v>#N/A</v>
       </c>
       <c r="E119">
-        <f t="shared" ref="E119" si="19">IFERROR(FIND("W",A119),0)</f>
-        <v>1</v>
+        <f>IFERROR(FIND("W",A122),0)</f>
+        <v>0</v>
       </c>
       <c r="F119">
-        <f t="shared" ref="F119" si="20">IFERROR(FIND("C",A119),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <f t="shared" ref="G119" si="21">IF(AND(E118=1,E119=1),0,SQRT((C118-C119)*(C118-C119)+(D118-D119)*(D118-D119)))</f>
-        <v>19.277155075864801</v>
+        <f>IFERROR(FIND("C",A122),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G119" t="e">
+        <f t="shared" ref="G119" si="13">IF(AND(E118=1,E119=1),0,SQRT((C118-C119)*(C118-C119)+(D118-D119)*(D118-D119)))</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -4188,8 +4188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACD11CA-D5FD-45A4-9067-A27C64EB0F94}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
